--- a/input/DOI_Reserved_GEO_200318.xlsx
+++ b/input/DOI_Reserved_GEO_200318.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgward\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loubrieu/PycharmProjects/pds-doi-service/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE67D36-7884-6D40-B1F9-52CF29BD162D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6060"/>
+    <workbookView xWindow="15320" yWindow="7920" windowWidth="23300" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>status</t>
   </si>
@@ -62,9 +63,6 @@
   </si>
   <si>
     <t>J. R.</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
   </si>
   <si>
     <t>Laboratory Shocked Feldspars Bundle</t>
@@ -73,7 +71,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,13 +106,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,56 +392,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83984375" customWidth="1"/>
-    <col min="2" max="2" width="30.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.578125" customWidth="1"/>
-    <col min="4" max="4" width="49.41796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="23.578125" customWidth="1"/>
-    <col min="7" max="7" width="41.26171875" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43901</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
